--- a/genre/Repartition genre.xlsx
+++ b/genre/Repartition genre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\genre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543666A-A39D-440E-8D9E-255E3882FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C6B03-2504-424A-B032-545C88E78683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{81D33278-0DB8-4C74-8A76-29FA19671E90}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,28 +486,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>8946</v>
+        <v>10528</v>
       </c>
       <c r="C2" s="2">
-        <v>83.654385636805685</v>
+        <v>83.1464223661349</v>
       </c>
       <c r="D2">
-        <v>24888</v>
+        <v>28042</v>
       </c>
       <c r="E2" s="2">
-        <v>80.674230145867099</v>
+        <v>81.41330855882012</v>
       </c>
       <c r="F2">
-        <v>33834</v>
+        <v>38570</v>
       </c>
       <c r="G2" s="2">
-        <v>81.44136337377239</v>
+        <v>81.879166135948708</v>
       </c>
       <c r="H2">
-        <v>5115</v>
+        <v>5798</v>
       </c>
       <c r="I2" s="2">
-        <v>94.687152906330979</v>
+        <v>94.661224489795913</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -515,28 +515,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1748</v>
+        <v>2134</v>
       </c>
       <c r="C3" s="2">
-        <v>16.345614363194311</v>
+        <v>16.853577633865111</v>
       </c>
       <c r="D3">
-        <v>5962</v>
+        <v>6402</v>
       </c>
       <c r="E3" s="2">
-        <v>19.325769854132901</v>
+        <v>18.586691441179891</v>
       </c>
       <c r="F3">
-        <v>7710</v>
+        <v>8536</v>
       </c>
       <c r="G3" s="2">
-        <v>18.55863662622761</v>
+        <v>18.120833864051288</v>
       </c>
       <c r="H3">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="I3" s="2">
-        <v>5.3128470936690109</v>
+        <v>5.3387755102040817</v>
       </c>
     </row>
   </sheetData>
